--- a/code lists/DE4A Code Lists - Document Type Identifiers v1.xlsx
+++ b/code lists/DE4A Code Lists - Document Type Identifiers v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\de4a-codelists\code lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157D6210-F21E-4923-96B9-27AAE49D7FE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DC144-2469-4FCD-A394-867C13361D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="2610" windowWidth="20760" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -54,33 +54,15 @@
     <t>urn:de4a-eu:CanonicalEvidenceType</t>
   </si>
   <si>
-    <t>CompanyRegistration</t>
-  </si>
-  <si>
     <t>DBA Company Registration</t>
   </si>
   <si>
-    <t>BirthCertificate</t>
-  </si>
-  <si>
     <t>SA HigherEducationDiploma</t>
   </si>
   <si>
-    <t>HigherEducationDiploma</t>
-  </si>
-  <si>
     <t>SA SecondaryEducationDiploma</t>
   </si>
   <si>
-    <t>SecondaryEducationDiploma</t>
-  </si>
-  <si>
-    <t>ResidenceRegistration</t>
-  </si>
-  <si>
-    <t>MarriageRegistration</t>
-  </si>
-  <si>
     <t>MA ResidenceRegistration</t>
   </si>
   <si>
@@ -88,6 +70,24 @@
   </si>
   <si>
     <t>MA BirthCertificate</t>
+  </si>
+  <si>
+    <t>CompanyRegistration:1.0</t>
+  </si>
+  <si>
+    <t>HigherEducationDiploma:1.0</t>
+  </si>
+  <si>
+    <t>SecondaryEducationDiploma:1.0</t>
+  </si>
+  <si>
+    <t>ResidenceRegistration:1.0</t>
+  </si>
+  <si>
+    <t>MarriageRegistration:1.0</t>
+  </si>
+  <si>
+    <t>BirthCertificate:1.0</t>
   </si>
 </sst>
 </file>
@@ -590,14 +590,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="38" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -624,15 +624,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -644,13 +644,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -662,13 +662,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -680,13 +680,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -698,13 +698,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -716,13 +716,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
